--- a/Iditarod Challenge 2/Ackermann Trial Data.xlsx
+++ b/Iditarod Challenge 2/Ackermann Trial Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS202 Repository\Iditarod Challenge 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B8CAB-9C5F-4DDA-B882-26FE2B251F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB68B8CC-BC07-4DA6-8F19-837F47EF0D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +48,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,14 +78,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -86,6 +117,2783 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ackermann 4, 0 trials</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A11B-4AF5-971A-7718147E5CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="516762624"/>
+        <c:axId val="516753112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="516762624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516753112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516753112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516762624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ackermann 3, 8 trials</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60.217799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.482299999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.945300000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.456400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.921599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.929900000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.185099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.386699999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.447000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.207999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8988-499F-A812-6A3DE78230CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530136368"/>
+        <c:axId val="530140304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530136368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530140304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530140304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530136368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ackermann 2, 2009 trials</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>171.47300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.39599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174.273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234.239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190.20599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179.626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169.464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55CE-4F02-92F3-0291A74A586C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530132760"/>
+        <c:axId val="530140960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530132760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530140960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530140960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530132760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D60A56-797C-4282-8692-676D42924E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE1911B-38D3-447C-A0EA-9F750F6C071C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B19DF93-D8CC-416E-B96D-5E54AEEE5A8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +3288,19 @@
         <v>169.464</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>4.62E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>61.917999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>185.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>